--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\projects\Reunion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401DE31-66BF-47FC-AC1F-782C67958FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C883B6-C6B9-469F-8E2D-7F3FAB0CE575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A4740AFC-9DB2-4828-A603-0153BAC73FE7}"/>
   </bookViews>
